--- a/Output/แผนการปฎิบัติงาน (Project Sched.xlsx
+++ b/Output/แผนการปฎิบัติงาน (Project Sched.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Mango\PM\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33E4566C-903A-43CF-B837-8E16918CFC44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB5F914A-AB83-4F7B-8727-F17478ACFA31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7DE8017D-D8F9-4D61-A7DD-E954AC3AB58B}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{A8981C60-987D-492C-AF1C-274977DDBCCB}"/>
   </bookViews>
   <sheets>
     <sheet name="แผนการปฎิบัติงาน (Project Sched" sheetId="2" r:id="rId1"/>
@@ -847,7 +847,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
-    <cellStyle name="ปกติ 2" xfId="1" xr:uid="{A94BE8FE-F1EF-4D16-A26C-AF60C7CA021D}"/>
+    <cellStyle name="ปกติ 2" xfId="1" xr:uid="{1A88B663-B4E3-4DED-BB5A-BCD8507BEE02}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1158,7 +1158,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E315BE3F-49C0-4646-B663-35A8AEC07A01}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0AF6BEC-7718-45CA-96F8-266897D0B166}">
   <dimension ref="A1:CY55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
